--- a/database/industries/ghaza/ghebshahr/official/quarterly.xlsx
+++ b/database/industries/ghaza/ghebshahr/official/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\ghebshahr\official\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAHID\Desktop\Trade\database\industries\ghaza\ghebshahr\official\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62AA4C94-6D37-4DE7-B7AF-C66BEFD58EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC11B4BD-9526-474D-B523-EC4F8973B304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2023</t>
+    <t>Copyright @2015 - 2024</t>
   </si>
   <si>
     <t>غبشهر-صنعتی‌ بهشهر</t>
@@ -34,6 +34,30 @@
     <t>هزینه های عمومی و اداری</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1397/09</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1397/12</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1398/03</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1398/06</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1398/09</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1398/12</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/03</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/06</t>
+  </si>
+  <si>
     <t>فصل چهارم منتهی به 1399/09</t>
   </si>
   <si>
@@ -62,6 +86,12 @@
   </si>
   <si>
     <t>فصل اول منتهی به 1401/12</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1402/03</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1402/06</t>
   </si>
   <si>
     <t>هزینه حمل و نقل و انتقال</t>
@@ -553,16 +583,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N31"/>
+  <dimension ref="B1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="14" width="20" customWidth="1"/>
+    <col min="2" max="24" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -576,8 +606,18 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+    </row>
+    <row r="2" spans="2:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -593,8 +633,18 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -610,8 +660,18 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -625,8 +685,18 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+    </row>
+    <row r="5" spans="2:24" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -642,8 +712,18 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+    </row>
+    <row r="6" spans="2:24" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -659,8 +739,18 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -674,8 +764,18 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+    </row>
+    <row r="8" spans="2:24" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -711,8 +811,38 @@
       <c r="N8" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="X8" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -726,10 +856,20 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -763,10 +903,40 @@
       <c r="N10" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O10" s="9">
+        <v>0</v>
+      </c>
+      <c r="P10" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>0</v>
+      </c>
+      <c r="R10" s="9">
+        <v>0</v>
+      </c>
+      <c r="S10" s="9">
+        <v>0</v>
+      </c>
+      <c r="T10" s="9">
+        <v>0</v>
+      </c>
+      <c r="U10" s="9">
+        <v>0</v>
+      </c>
+      <c r="V10" s="9">
+        <v>0</v>
+      </c>
+      <c r="W10" s="9">
+        <v>0</v>
+      </c>
+      <c r="X10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -800,10 +970,40 @@
       <c r="N11" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O11" s="11">
+        <v>0</v>
+      </c>
+      <c r="P11" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>0</v>
+      </c>
+      <c r="R11" s="11">
+        <v>0</v>
+      </c>
+      <c r="S11" s="11">
+        <v>0</v>
+      </c>
+      <c r="T11" s="11">
+        <v>0</v>
+      </c>
+      <c r="U11" s="11">
+        <v>0</v>
+      </c>
+      <c r="V11" s="11">
+        <v>0</v>
+      </c>
+      <c r="W11" s="11">
+        <v>0</v>
+      </c>
+      <c r="X11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -837,47 +1037,107 @@
       <c r="N12" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O12" s="9">
+        <v>0</v>
+      </c>
+      <c r="P12" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>0</v>
+      </c>
+      <c r="R12" s="9">
+        <v>0</v>
+      </c>
+      <c r="S12" s="9">
+        <v>0</v>
+      </c>
+      <c r="T12" s="9">
+        <v>0</v>
+      </c>
+      <c r="U12" s="9">
+        <v>0</v>
+      </c>
+      <c r="V12" s="9">
+        <v>0</v>
+      </c>
+      <c r="W12" s="9">
+        <v>0</v>
+      </c>
+      <c r="X12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
+        <v>70095</v>
+      </c>
+      <c r="F13" s="11">
+        <v>92376</v>
+      </c>
+      <c r="G13" s="11">
+        <v>101691</v>
+      </c>
+      <c r="H13" s="11">
+        <v>137918</v>
+      </c>
+      <c r="I13" s="11">
+        <v>119946</v>
+      </c>
+      <c r="J13" s="11">
+        <v>18302</v>
+      </c>
+      <c r="K13" s="11">
+        <v>47916</v>
+      </c>
+      <c r="L13" s="11">
+        <v>-265</v>
+      </c>
+      <c r="M13" s="11">
         <v>10062</v>
       </c>
-      <c r="F13" s="11">
+      <c r="N13" s="11">
         <v>120765</v>
       </c>
-      <c r="G13" s="11">
+      <c r="O13" s="11">
         <v>120588</v>
       </c>
-      <c r="H13" s="11">
+      <c r="P13" s="11">
         <v>127937</v>
       </c>
-      <c r="I13" s="11">
+      <c r="Q13" s="11">
         <v>85401</v>
       </c>
-      <c r="J13" s="11">
+      <c r="R13" s="11">
         <v>127121</v>
       </c>
-      <c r="K13" s="11">
+      <c r="S13" s="11">
         <v>176447</v>
       </c>
-      <c r="L13" s="11">
+      <c r="T13" s="11">
         <v>205976</v>
       </c>
-      <c r="M13" s="11">
+      <c r="U13" s="11">
         <v>340727</v>
       </c>
-      <c r="N13" s="11">
+      <c r="V13" s="11">
         <v>186412</v>
       </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="W13" s="11">
+        <v>249931</v>
+      </c>
+      <c r="X13" s="11">
+        <v>245705</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -911,126 +1171,246 @@
       <c r="N14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O14" s="9">
+        <v>0</v>
+      </c>
+      <c r="P14" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>0</v>
+      </c>
+      <c r="R14" s="9">
+        <v>0</v>
+      </c>
+      <c r="S14" s="9">
+        <v>0</v>
+      </c>
+      <c r="T14" s="9">
+        <v>0</v>
+      </c>
+      <c r="U14" s="9">
+        <v>0</v>
+      </c>
+      <c r="V14" s="9">
+        <v>0</v>
+      </c>
+      <c r="W14" s="9">
+        <v>0</v>
+      </c>
+      <c r="X14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
+        <v>1323</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0</v>
+      </c>
+      <c r="G15" s="11">
+        <v>1427</v>
+      </c>
+      <c r="H15" s="11">
+        <v>-817</v>
+      </c>
+      <c r="I15" s="11">
+        <v>11825</v>
+      </c>
+      <c r="J15" s="11">
+        <v>5770</v>
+      </c>
+      <c r="K15" s="11">
+        <v>-3231</v>
+      </c>
+      <c r="L15" s="11">
+        <v>9138</v>
+      </c>
+      <c r="M15" s="11">
         <v>758</v>
       </c>
-      <c r="F15" s="11">
+      <c r="N15" s="11">
         <v>630</v>
       </c>
-      <c r="G15" s="11">
+      <c r="O15" s="11">
         <v>7220</v>
       </c>
-      <c r="H15" s="11">
+      <c r="P15" s="11">
         <v>-5243</v>
       </c>
-      <c r="I15" s="11">
+      <c r="Q15" s="11">
         <v>1242</v>
       </c>
-      <c r="J15" s="11">
+      <c r="R15" s="11">
         <v>1751</v>
       </c>
-      <c r="K15" s="11">
+      <c r="S15" s="11">
         <v>1482</v>
       </c>
-      <c r="L15" s="11">
+      <c r="T15" s="11">
         <v>1817</v>
       </c>
-      <c r="M15" s="11">
+      <c r="U15" s="11">
         <v>1707</v>
       </c>
-      <c r="N15" s="11">
+      <c r="V15" s="11">
         <v>1668</v>
       </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="W15" s="11">
+        <v>2058</v>
+      </c>
+      <c r="X15" s="11">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
+        <v>4442</v>
+      </c>
+      <c r="F16" s="9">
+        <v>3723</v>
+      </c>
+      <c r="G16" s="9">
+        <v>5044</v>
+      </c>
+      <c r="H16" s="9">
+        <v>4584</v>
+      </c>
+      <c r="I16" s="9">
+        <v>4460</v>
+      </c>
+      <c r="J16" s="9">
+        <v>4239</v>
+      </c>
+      <c r="K16" s="9">
+        <v>11131</v>
+      </c>
+      <c r="L16" s="9">
+        <v>-921</v>
+      </c>
+      <c r="M16" s="9">
         <v>3482</v>
       </c>
-      <c r="F16" s="9">
+      <c r="N16" s="9">
         <v>6702</v>
       </c>
-      <c r="G16" s="9">
+      <c r="O16" s="9">
         <v>4454</v>
       </c>
-      <c r="H16" s="9">
+      <c r="P16" s="9">
         <v>5512</v>
       </c>
-      <c r="I16" s="9">
+      <c r="Q16" s="9">
         <v>5896</v>
       </c>
-      <c r="J16" s="9">
+      <c r="R16" s="9">
         <v>7102</v>
       </c>
-      <c r="K16" s="9">
+      <c r="S16" s="9">
         <v>5542</v>
       </c>
-      <c r="L16" s="9">
+      <c r="T16" s="9">
         <v>6896</v>
       </c>
-      <c r="M16" s="9">
+      <c r="U16" s="9">
         <v>15342</v>
       </c>
-      <c r="N16" s="9">
+      <c r="V16" s="9">
         <v>10442</v>
       </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="W16" s="9">
+        <v>11349</v>
+      </c>
+      <c r="X16" s="9">
+        <v>10234</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
+        <v>56165</v>
+      </c>
+      <c r="F17" s="11">
+        <v>65024</v>
+      </c>
+      <c r="G17" s="11">
+        <v>58275</v>
+      </c>
+      <c r="H17" s="11">
+        <v>103142</v>
+      </c>
+      <c r="I17" s="11">
+        <v>17993</v>
+      </c>
+      <c r="J17" s="11">
+        <v>79536</v>
+      </c>
+      <c r="K17" s="11">
+        <v>101493</v>
+      </c>
+      <c r="L17" s="11">
+        <v>107944</v>
+      </c>
+      <c r="M17" s="11">
         <v>83846</v>
       </c>
-      <c r="F17" s="11">
+      <c r="N17" s="11">
         <v>116931</v>
       </c>
-      <c r="G17" s="11">
+      <c r="O17" s="11">
         <v>145060</v>
       </c>
-      <c r="H17" s="11">
+      <c r="P17" s="11">
         <v>130783</v>
       </c>
-      <c r="I17" s="11">
+      <c r="Q17" s="11">
         <v>138871</v>
       </c>
-      <c r="J17" s="11">
+      <c r="R17" s="11">
         <v>132530</v>
       </c>
-      <c r="K17" s="11">
+      <c r="S17" s="11">
         <v>129461</v>
       </c>
-      <c r="L17" s="11">
+      <c r="T17" s="11">
         <v>457164</v>
       </c>
-      <c r="M17" s="11">
+      <c r="U17" s="11">
         <v>211322</v>
       </c>
-      <c r="N17" s="11">
+      <c r="V17" s="11">
         <v>261093</v>
       </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="W17" s="11">
+        <v>367366</v>
+      </c>
+      <c r="X17" s="11">
+        <v>339205</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9">
-        <v>0</v>
+        <v>997</v>
       </c>
       <c r="F18" s="9">
         <v>0</v>
@@ -1039,10 +1419,10 @@
         <v>0</v>
       </c>
       <c r="H18" s="9">
-        <v>0</v>
+        <v>-61694</v>
       </c>
       <c r="I18" s="9">
-        <v>0</v>
+        <v>61694</v>
       </c>
       <c r="J18" s="9">
         <v>0</v>
@@ -1059,82 +1439,172 @@
       <c r="N18" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O18" s="9">
+        <v>0</v>
+      </c>
+      <c r="P18" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>0</v>
+      </c>
+      <c r="R18" s="9">
+        <v>0</v>
+      </c>
+      <c r="S18" s="9">
+        <v>0</v>
+      </c>
+      <c r="T18" s="9">
+        <v>0</v>
+      </c>
+      <c r="U18" s="9">
+        <v>0</v>
+      </c>
+      <c r="V18" s="9">
+        <v>0</v>
+      </c>
+      <c r="W18" s="9">
+        <v>0</v>
+      </c>
+      <c r="X18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
+        <v>234341</v>
+      </c>
+      <c r="F19" s="11">
+        <v>123010</v>
+      </c>
+      <c r="G19" s="11">
+        <v>176051</v>
+      </c>
+      <c r="H19" s="11">
+        <v>152898</v>
+      </c>
+      <c r="I19" s="11">
+        <v>239402</v>
+      </c>
+      <c r="J19" s="11">
+        <v>229266</v>
+      </c>
+      <c r="K19" s="11">
+        <v>268263</v>
+      </c>
+      <c r="L19" s="11">
+        <v>333298</v>
+      </c>
+      <c r="M19" s="11">
         <v>219251</v>
       </c>
-      <c r="F19" s="11">
+      <c r="N19" s="11">
         <v>300690</v>
       </c>
-      <c r="G19" s="11">
+      <c r="O19" s="11">
         <v>262525</v>
       </c>
-      <c r="H19" s="11">
+      <c r="P19" s="11">
         <v>303381</v>
       </c>
-      <c r="I19" s="11">
+      <c r="Q19" s="11">
         <v>394692</v>
       </c>
-      <c r="J19" s="11">
+      <c r="R19" s="11">
         <v>326581</v>
       </c>
-      <c r="K19" s="11">
+      <c r="S19" s="11">
         <v>503389</v>
       </c>
-      <c r="L19" s="11">
+      <c r="T19" s="11">
         <v>190753</v>
       </c>
-      <c r="M19" s="11">
+      <c r="U19" s="11">
         <v>476000</v>
       </c>
-      <c r="N19" s="11">
+      <c r="V19" s="11">
         <v>406597</v>
       </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="W19" s="11">
+        <v>505998</v>
+      </c>
+      <c r="X19" s="11">
+        <v>756075</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
+        <v>367363</v>
+      </c>
+      <c r="F20" s="13">
+        <v>284133</v>
+      </c>
+      <c r="G20" s="13">
+        <v>342488</v>
+      </c>
+      <c r="H20" s="13">
+        <v>336031</v>
+      </c>
+      <c r="I20" s="13">
+        <v>455320</v>
+      </c>
+      <c r="J20" s="13">
+        <v>337113</v>
+      </c>
+      <c r="K20" s="13">
+        <v>425572</v>
+      </c>
+      <c r="L20" s="13">
+        <v>449194</v>
+      </c>
+      <c r="M20" s="13">
         <v>317399</v>
       </c>
-      <c r="F20" s="13">
+      <c r="N20" s="13">
         <v>545718</v>
       </c>
-      <c r="G20" s="13">
+      <c r="O20" s="13">
         <v>539847</v>
       </c>
-      <c r="H20" s="13">
+      <c r="P20" s="13">
         <v>562370</v>
       </c>
-      <c r="I20" s="13">
+      <c r="Q20" s="13">
         <v>626102</v>
       </c>
-      <c r="J20" s="13">
+      <c r="R20" s="13">
         <v>595085</v>
       </c>
-      <c r="K20" s="13">
+      <c r="S20" s="13">
         <v>816321</v>
       </c>
-      <c r="L20" s="13">
+      <c r="T20" s="13">
         <v>862606</v>
       </c>
-      <c r="M20" s="13">
+      <c r="U20" s="13">
         <v>1045098</v>
       </c>
-      <c r="N20" s="13">
+      <c r="V20" s="13">
         <v>866212</v>
       </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="W20" s="13">
+        <v>1136702</v>
+      </c>
+      <c r="X20" s="13">
+        <v>1353382</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1148,8 +1618,18 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1163,8 +1643,18 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1178,10 +1668,20 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+    </row>
+    <row r="24" spans="2:24" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -1215,8 +1715,38 @@
       <c r="N24" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T24" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="U24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="W24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="X24" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1230,82 +1760,152 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F26" s="9">
         <v>320</v>
       </c>
       <c r="G26" s="9">
+        <v>325</v>
+      </c>
+      <c r="H26" s="9">
+        <v>250</v>
+      </c>
+      <c r="I26" s="9">
+        <v>325</v>
+      </c>
+      <c r="J26" s="9">
+        <v>325</v>
+      </c>
+      <c r="K26" s="9">
+        <v>250</v>
+      </c>
+      <c r="L26" s="9">
+        <v>260</v>
+      </c>
+      <c r="M26" s="9">
+        <v>320</v>
+      </c>
+      <c r="N26" s="9">
+        <v>320</v>
+      </c>
+      <c r="O26" s="9">
         <v>324</v>
       </c>
-      <c r="H26" s="9">
+      <c r="P26" s="9">
         <v>320</v>
       </c>
-      <c r="I26" s="9">
+      <c r="Q26" s="9">
         <v>271</v>
       </c>
-      <c r="J26" s="9">
+      <c r="R26" s="9">
         <v>314</v>
       </c>
-      <c r="K26" s="9">
+      <c r="S26" s="9">
         <v>455</v>
       </c>
-      <c r="L26" s="9">
+      <c r="T26" s="9">
         <v>445</v>
       </c>
-      <c r="M26" s="9">
+      <c r="U26" s="9">
         <v>303</v>
       </c>
-      <c r="N26" s="9">
+      <c r="V26" s="9">
         <v>303</v>
       </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="W26" s="9">
+        <v>303</v>
+      </c>
+      <c r="X26" s="9">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11">
+        <v>897</v>
+      </c>
+      <c r="F27" s="11">
+        <v>746</v>
+      </c>
+      <c r="G27" s="11">
+        <v>705</v>
+      </c>
+      <c r="H27" s="11">
+        <v>880</v>
+      </c>
+      <c r="I27" s="11">
+        <v>908</v>
+      </c>
+      <c r="J27" s="11">
+        <v>908</v>
+      </c>
+      <c r="K27" s="11">
+        <v>687</v>
+      </c>
+      <c r="L27" s="11">
+        <v>650</v>
+      </c>
+      <c r="M27" s="11">
         <v>622</v>
       </c>
-      <c r="F27" s="11">
+      <c r="N27" s="11">
         <v>650</v>
       </c>
-      <c r="G27" s="11">
+      <c r="O27" s="11">
         <v>726</v>
       </c>
-      <c r="H27" s="11">
+      <c r="P27" s="11">
         <v>725</v>
       </c>
-      <c r="I27" s="11">
+      <c r="Q27" s="11">
         <v>750</v>
       </c>
-      <c r="J27" s="11">
+      <c r="R27" s="11">
         <v>745</v>
       </c>
-      <c r="K27" s="11">
+      <c r="S27" s="11">
         <v>774</v>
       </c>
-      <c r="L27" s="11">
+      <c r="T27" s="11">
         <v>774</v>
       </c>
-      <c r="M27" s="11">
+      <c r="U27" s="11">
         <v>818</v>
       </c>
-      <c r="N27" s="11">
+      <c r="V27" s="11">
         <v>818</v>
       </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="W27" s="11">
+        <v>866</v>
+      </c>
+      <c r="X27" s="11">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1319,8 +1919,18 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1334,8 +1944,18 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1349,8 +1969,18 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1364,6 +1994,16 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
